--- a/ribbon_xnk_sunzex/hoa_don_mau/tisu/Tisu_SHIP.xlsx
+++ b/ribbon_xnk_sunzex/hoa_don_mau/tisu/Tisu_SHIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="19755" windowHeight="9450"/>
   </bookViews>
   <sheets>
-    <sheet name="temp" sheetId="4" r:id="rId1"/>
+    <sheet name="temp" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -42,7 +43,7 @@
     </r>
   </si>
   <si>
-    <t>Date: 05/06/2020</t>
+    <t xml:space="preserve">Date: </t>
   </si>
   <si>
     <t>TS 13, TIEN SON INDUSTRIAL ZONE,TU SON, BAC NINH</t>
@@ -75,27 +76,15 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>TACOMA - WA</t>
-  </si>
-  <si>
     <t>Port of Loading</t>
   </si>
   <si>
-    <t>CANG LACH HUYEN HP</t>
-  </si>
-  <si>
     <t>Feeder Vessel/ Voyage</t>
   </si>
   <si>
-    <t>YM UPSURGENCE 044E</t>
-  </si>
-  <si>
     <t>Commodity</t>
   </si>
   <si>
-    <t>AS PER INVOICE NO:SG2006028/29/30/31/32</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -127,6 +116,18 @@
   </si>
   <si>
     <t>TONZEX TECHNOLOGY CO.LTD</t>
+  </si>
+  <si>
+    <t>LONG BEACH - CA</t>
+  </si>
+  <si>
+    <t>CANG HAI PHONG</t>
+  </si>
+  <si>
+    <t>KOTA PETANI VOY#0010E</t>
+  </si>
+  <si>
+    <t>AS PER INVOICE NO: SG2001012</t>
   </si>
 </sst>
 </file>
@@ -325,24 +326,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -357,9 +346,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,13 +390,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_CHI DINH G-H" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -709,436 +713,440 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="25.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="34.5" thickTop="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="42">
+        <v>43983</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="22"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="23">
-        <v>43997</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="12"/>
+      <c r="E14" s="41">
+        <v>43844</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="18">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="26" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E20" s="24">
+        <v>1688.4</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="12" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="12" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29">
-        <v>155720.5</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="E22" s="21">
+        <v>384</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25">
-      <c r="A21" s="12" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E23" s="30">
+        <v>1813.5</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25">
-      <c r="A22" s="12" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="26">
-        <v>46584</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="12" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="25.5">
+      <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="35">
-        <v>174522.64</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="25.5">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1151,5 +1159,18 @@
     <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>